--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="C2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>8</v>

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C2">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>41</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>8</v>

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="C3">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="C3">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>6</v>

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>528</v>
+        <v>550</v>
       </c>
       <c r="C2">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="D2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="C2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="C3">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="C2">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>523</v>
+        <v>577</v>
       </c>
       <c r="C2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>9</v>

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="C2">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="D2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>13</v>

--- a/Base/Teams/Chiefs/Target Depth Data.xlsx
+++ b/Base/Teams/Chiefs/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="C2">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="C2">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2">
         <v>13</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
